--- a/elements.xlsx
+++ b/elements.xlsx
@@ -12785,7 +12785,7 @@
   <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/elements.xlsx
+++ b/elements.xlsx
@@ -12813,7 +12813,7 @@
   <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
